--- a/biology/Botanique/Jardin_botanique_de_Naples/Jardin_botanique_de_Naples.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Naples/Jardin_botanique_de_Naples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique de Naples, également connu sous le nom de Jardins botaniques royaux, dépend de l'université de Naples - Frédéric-II. Il occupe une superficie de 12 hectares dans le quartier de Foria, près de l'hospice royal des Pauvres, et abrite environ 9 000 espèces végétales et près de 25 000 exemplaires. Il est membre du BGCI[1] et son code d'identification international est « NAP ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique de Naples, également connu sous le nom de Jardins botaniques royaux, dépend de l'université de Naples - Frédéric-II. Il occupe une superficie de 12 hectares dans le quartier de Foria, près de l'hospice royal des Pauvres, et abrite environ 9 000 espèces végétales et près de 25 000 exemplaires. Il est membre du BGCI et son code d'identification international est « NAP ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé le 28 décembre 1807 par un décret de Joseph Bonaparte, roi de Naples, le Jardin botanique a été construit sur un terrain qui appartenait aux religieuses de Santa Maria della Pace et à l'hôpital de Cava. En réalité, le projet avait été initialement approuvé par le roi Ferdinand IV de Naples une dizaine d'années auparavant, mais la révolution napolitaine de 1799 en avait empêché la réalisation.
 Le projet est l'œuvre de deux architectes. Le premier, Giuliano de Fazio, est l'auteur de la monumentale façade de l'avenue de Foria, de la serre tempérée, et de l'allée menant au château qui date des XVIe et XVIIe siècles. La partie inférieure est due à Gaspare Maria Paoletti.
@@ -522,7 +536,43 @@
 Ravages causés par les bombardements, vol de fer pour l'usage militaire, arrivée de la population en fuite, décision d'utiliser le terrain pour des cultures alimentaires, reconversion de certaines zones à des fins militaires : telles ont été les conséquences de la Seconde Guerre mondiale sur la vie du jardin botanique de Naples. Joseph Catalano, le successeur de Longo, nommé  directeur après la Seconde Guerre mondiale en 1948, s'est vu confier la restauration du jardin, l'amélioration des outils mis à la disposition des botanistes et la transformation de la "valletta", créée par Gasparrini, dans ce qui aujourd'hui est le filicetum. Dans la même ligne, Valerio Giacomini devint directeur en 1959.
 En 1963 commence une période très importante dans l'histoire du Jardin. Sous la direction d'Aldo Merola, le Jardin botanique de Naples a acquis en 1967, l'autonomie économique et administrative, ce qui a permis d'obtenir des fonds supplémentaires pour améliorer la structure : plusieurs serres ont été construites (pour un total de 5 000 m2), ainsi qu'un système de chauffage et un réseau de distribution d'eau. Essentiel fut le travail « politique » de Merola, qui a essayé d'obtenir une aide par le biais de la législation (par ex. création d'un grade de professionnel de haute spécialisation : le jardinier du jardin botanique). Les collections ont été fortement enrichies, en grande partie grâce au travail de Luigi Califano. Les relations avec les principaux jardins botaniques européens ont été renouées et une grande importance a été accordée au rôle de la structure éducative. Un des signes les plus visibles, cependant, de l'œuvre de Merola est le réagencement des collections en fonction de deux critères, systématique et écologique.
 Le tremblement de terre du 23 novembre 1980 a fortement affecté le jardin botanique, sous la direction de Joseph Caputo. Une fois de plus, l'infrastructure a servi de refuge pour la population. En 1981, Paolo De Luca devenu directeur a commencé la reconstruction.
-Chronologie des directeurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jardin_botanique_de_Naples</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Naples</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chronologie des directeurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1810 - 1860: Michele Tenore
 1860 : Vincenzo Tenore
 1861 - 1866: Guglielmo Gasparrini
@@ -548,31 +598,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Naples</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Naples</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les collections sont agencées en fonction de trois critères : systématique, écologique et ethnobotanique.
 Collections systématiques
@@ -597,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jardin_botanique_de_Naples</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardin_botanique_de_Naples</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Château et bâtiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le château, construit entre le XVIe et le XVIIe siècle, a longtemps accueilli l'Institut de botanique, le laboratoire, la bibliothèque, l'herbier et le musée, avant de devenir le siège administratif et technique, et d'héberger le musée de Paléobotanique et d'ethnobotanique.
 Le bâtiment des cultures expérimentales, où sont conservées les semences de nombreuses plantes utiles et des spécimens d'autres plantes.
